--- a/_memo/react_native_frontend.xlsx
+++ b/_memo/react_native_frontend.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66496E69-7C4C-4E13-93AE-61DEB53844FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2956B34-C818-4E15-893A-220311B78A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{9C4BFCA1-9FB9-480B-A627-36D42D9CEE43}"/>
   </bookViews>
@@ -357,6 +357,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -371,18 +383,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -701,7 +701,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -712,16 +712,16 @@
     <col min="4" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="5" width="27.75" customWidth="1"/>
     <col min="6" max="6" width="26.125" customWidth="1"/>
-    <col min="7" max="7" width="29.6875" customWidth="1"/>
+    <col min="7" max="7" width="45.4375" customWidth="1"/>
     <col min="8" max="8" width="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13"/>
       <c r="D1" s="3" t="s">
         <v>29</v>
       </c>
@@ -736,22 +736,22 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -759,19 +759,19 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
@@ -789,11 +789,11 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A5" s="10"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="5" t="s">
         <v>34</v>
       </c>
@@ -808,11 +808,11 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A6" s="10"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="5" t="s">
         <v>34</v>
       </c>
@@ -827,18 +827,18 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A7" s="10"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="9" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -846,55 +846,55 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A8" s="10"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A9" s="10"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A10" s="10"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A11" s="10"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
       <c r="G11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A12" s="10"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
@@ -909,11 +909,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A13" s="10"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="14"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="4" t="s">
         <v>33</v>
       </c>
@@ -929,17 +929,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F7:F11"/>
     <mergeCell ref="E7:E11"/>
     <mergeCell ref="D7:D11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
